--- a/cloudnativetools.xlsx
+++ b/cloudnativetools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>title</t>
   </si>
@@ -45,10 +45,16 @@
 </t>
   </si>
   <si>
+    <t>agola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agola: CI/CD Redefined </t>
+  </si>
+  <si>
     <t>Continuous Integration &amp; Delivery</t>
   </si>
   <si>
-    <t>argoproj/argo-cd</t>
+    <t>agola-io/agola</t>
   </si>
 </sst>
 </file>
@@ -464,17 +470,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cloudnativetools.xlsx
+++ b/cloudnativetools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>title</t>
   </si>
@@ -45,16 +45,10 @@
 </t>
   </si>
   <si>
-    <t>agola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agola: CI/CD Redefined </t>
-  </si>
-  <si>
     <t>Continuous Integration &amp; Delivery</t>
   </si>
   <si>
-    <t>agola-io/agola</t>
+    <t>argoproj/argo-cd</t>
   </si>
 </sst>
 </file>
@@ -470,17 +464,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cloudnativetools.xlsx
+++ b/cloudnativetools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>title</t>
   </si>
@@ -43,6 +43,9 @@
   <si>
     <t xml:space="preserve">argoproj/argo-cd
 </t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>Continuous Integration &amp; Delivery</t>
@@ -464,17 +467,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cloudnativetools.xlsx
+++ b/cloudnativetools.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangambiradar/Documents/GitHub/toolsconverter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073BC42C-6C20-2E4C-9992-2163D4A2B98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="277">
   <si>
     <t>title</t>
   </si>
@@ -45,21 +51,815 @@
 </t>
   </si>
   <si>
-    <t>new</t>
+    <t>agola</t>
+  </si>
+  <si>
+    <t>Agola: CI/CD Redefined</t>
   </si>
   <si>
     <t>Continuous Integration &amp; Delivery</t>
   </si>
   <si>
-    <t>argoproj/argo-cd</t>
+    <t>agola-io/agola</t>
+  </si>
+  <si>
+    <t>antrea</t>
+  </si>
+  <si>
+    <t>Kubernetes networking based on Open vSwitch</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>antrea-io/antrea</t>
+  </si>
+  <si>
+    <t>aptakub</t>
+  </si>
+  <si>
+    <t>A modern, lightweight and multi-cluster desktop client for Kubernetes. Connect to multiple clusters simultaneously to view, edit and manage all your resources.</t>
+  </si>
+  <si>
+    <t>Development Tools</t>
+  </si>
+  <si>
+    <t>aptakube/aptakube</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>The logz.io continuous deployment solution over kubernetes</t>
+  </si>
+  <si>
+    <t>logzio/apollo</t>
+  </si>
+  <si>
+    <t>bfe</t>
+  </si>
+  <si>
+    <t>Open-source layer 7 load balancer derived from proprietary Baidu FrontEnd Platform (BFE)</t>
+  </si>
+  <si>
+    <t>Service Proxy &amp; Mesh</t>
+  </si>
+  <si>
+    <t>bfenetworks/bfe</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>Deploy a Production Ready Kubernetes Cluster with graphical interface</t>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+  </si>
+  <si>
+    <t>wise2c-devops/breeze</t>
+  </si>
+  <si>
+    <t>brigade</t>
+  </si>
+  <si>
+    <t>Event-driven scripting for Kubernetes</t>
+  </si>
+  <si>
+    <t>brigadecore/brigade</t>
+  </si>
+  <si>
+    <t>bumblebee</t>
+  </si>
+  <si>
+    <t>Get eBPF programs running from the cloud to the kernel in 1 line of bash</t>
+  </si>
+  <si>
+    <t>solo-io/bumblebee</t>
+  </si>
+  <si>
+    <t>bytebase</t>
+  </si>
+  <si>
+    <t>Reliable Database CI/CD for Developers and DBAs</t>
+  </si>
+  <si>
+    <t>bytebase/bytebase</t>
+  </si>
+  <si>
+    <t>calico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calico is an open source networking and network security solution for containers, virtual machines, and bare-metal workloads </t>
+  </si>
+  <si>
+    <t>projectcalico/calico</t>
+  </si>
+  <si>
+    <t>caddy</t>
+  </si>
+  <si>
+    <t>Caddy is a powerful, enterprise-ready, open source web server with automatic HTTPS written in Go</t>
+  </si>
+  <si>
+    <t>caddyserver/caddy</t>
+  </si>
+  <si>
+    <t>contour</t>
+  </si>
+  <si>
+    <t>Contour is a Kubernetes ingress controller using Envoy proxy.</t>
+  </si>
+  <si>
+    <t>projectcontour/contour</t>
+  </si>
+  <si>
+    <t>cilium</t>
+  </si>
+  <si>
+    <t>eBPF-based Networking, Security, and Observability</t>
+  </si>
+  <si>
+    <t>cilium/cilium</t>
+  </si>
+  <si>
+    <t>cert-manager</t>
+  </si>
+  <si>
+    <t>https://kubedaily.com/blog/certmanager/</t>
+  </si>
+  <si>
+    <t>Automatically provision and manage TLS certificates in Kubernetes</t>
+  </si>
+  <si>
+    <t>cert-manager/cert-manager</t>
+  </si>
+  <si>
+    <t>clusterman</t>
+  </si>
+  <si>
+    <t>Clusterman - Autoscale and Manage your compute clusters</t>
+  </si>
+  <si>
+    <t>Yelp/clusterman</t>
+  </si>
+  <si>
+    <t>claudie</t>
+  </si>
+  <si>
+    <t>Cloud-agnostic managed Kubernetes</t>
+  </si>
+  <si>
+    <t>berops/claudie</t>
+  </si>
+  <si>
+    <t>cluster-api</t>
+  </si>
+  <si>
+    <t>Home for Cluster API, a subproject of sig-cluster-lifecycle</t>
+  </si>
+  <si>
+    <t>kubernetes-sigs/cluster-api</t>
+  </si>
+  <si>
+    <t>clusterpedia</t>
+  </si>
+  <si>
+    <t>Clusterpedia is used for complex resource searches across multiple clusters, support simultaneous search of a single kind of resource or multiple kinds of resources existing in multiple clusters</t>
+  </si>
+  <si>
+    <t>clusterpedia-io/clusterpedia</t>
+  </si>
+  <si>
+    <t>coredns</t>
+  </si>
+  <si>
+    <t>CoreDNS is a DNS server that chains plugins</t>
+  </si>
+  <si>
+    <t>coredns/coredns</t>
+  </si>
+  <si>
+    <t>concourse</t>
+  </si>
+  <si>
+    <t>Concourse is a container-based continuous thing-doer written in Go</t>
+  </si>
+  <si>
+    <t>concourse/concourse</t>
+  </si>
+  <si>
+    <t>drone</t>
+  </si>
+  <si>
+    <t>Drone is a Container-Native, Continuous Delivery Platform</t>
+  </si>
+  <si>
+    <t>harness/drone</t>
+  </si>
+  <si>
+    <t>devtron</t>
+  </si>
+  <si>
+    <t>Software Delivery Workflow for Kubernetes</t>
+  </si>
+  <si>
+    <t>devtron-labs/devtron</t>
+  </si>
+  <si>
+    <t>egress-operator</t>
+  </si>
+  <si>
+    <t>A Kubernetes operator to produce egress gateway Envoy pods and control access to them with network policies</t>
+  </si>
+  <si>
+    <t>monzo/egress-operator</t>
+  </si>
+  <si>
+    <t>envoy</t>
+  </si>
+  <si>
+    <t>Cloud-native high-performance edge/middle/service proxy</t>
+  </si>
+  <si>
+    <t>envoyproxy/envoy</t>
+  </si>
+  <si>
+    <t>eksctl</t>
+  </si>
+  <si>
+    <t>weaveworks/eksctl</t>
+  </si>
+  <si>
+    <t>flagger</t>
+  </si>
+  <si>
+    <t>Progressive delivery Kubernetes operator (Canary, A/B Testing and Blue/Green deployments</t>
+  </si>
+  <si>
+    <t>weaveworks/flagger</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>Garden provides production-like Kubernetes testing environments for integration tests, QA, and development</t>
+  </si>
+  <si>
+    <t>garden-io/garden</t>
+  </si>
+  <si>
+    <t>gefyra</t>
+  </si>
+  <si>
+    <t>Gefyra blazingly-fast, rock-solid, local application development ➡️ with Kubernetes</t>
+  </si>
+  <si>
+    <t>gefyrahq/gefyra</t>
+  </si>
+  <si>
+    <t>haproxy</t>
+  </si>
+  <si>
+    <t>HAProxy Load Balancer's development branch (mirror of git.haproxy.org)</t>
+  </si>
+  <si>
+    <t>haproxy/haproxy</t>
+  </si>
+  <si>
+    <t>harvester</t>
+  </si>
+  <si>
+    <t>Open source hyperconverged infrastructure (HCI) software</t>
+  </si>
+  <si>
+    <t>harvester/harvester</t>
+  </si>
+  <si>
+    <t>hierarchical-namespaces</t>
+  </si>
+  <si>
+    <t>Hierarchical namespaces make it easier to share your cluster by making namespaces more powerful</t>
+  </si>
+  <si>
+    <t>kubernetes-sigs/hierarchical-namespaces</t>
+  </si>
+  <si>
+    <t>inlets</t>
+  </si>
+  <si>
+    <t>Secure HTTP and TCP tunnels that just work</t>
+  </si>
+  <si>
+    <t>inlets/inlets-pro</t>
+  </si>
+  <si>
+    <t>ingress-nginx</t>
+  </si>
+  <si>
+    <t>ingress-nginx is an Ingress controller for Kubernetes using NGINX as a reverse proxy and load balancer</t>
+  </si>
+  <si>
+    <t>kubernetes/ingress-nginx</t>
+  </si>
+  <si>
+    <t>jkube</t>
+  </si>
+  <si>
+    <t>Tools and plugins for Java developers that help you create container images along with the required manifests to deploy your applications to Kubernetes</t>
+  </si>
+  <si>
+    <t>eclipse/jkube</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>Jenkins automation server</t>
+  </si>
+  <si>
+    <t>jenkinsci/jenkins</t>
+  </si>
+  <si>
+    <t>jenkins-x</t>
+  </si>
+  <si>
+    <t>Jenkins X provides automated CI+CD for Kubernetes with Preview Environments on Pull Requests using Tekton, Knative, Lighthouse, Skaffold and Helm</t>
+  </si>
+  <si>
+    <t>jenkins-x/jx</t>
+  </si>
+  <si>
+    <t>keda</t>
+  </si>
+  <si>
+    <t>Event-driven Autoscaling in Kubernetes</t>
+  </si>
+  <si>
+    <t>kedacore/keda</t>
+  </si>
+  <si>
+    <t>keptn</t>
+  </si>
+  <si>
+    <t>Cloud-native application life-cycle orchestration. Keptn automates your SLO-driven multi-stage delivery and operations &amp; remediation of your applications</t>
+  </si>
+  <si>
+    <t>keptn/keptn</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>Kubernetes IN Docker - local clusters for testing Kubernetes</t>
+  </si>
+  <si>
+    <t>kubernetes-sigs/kind</t>
+  </si>
+  <si>
+    <t>keploy</t>
+  </si>
+  <si>
+    <t>Testing for Developers. Toolkit that creates test-cases and data mocks from API calls, DB queries, etc.</t>
+  </si>
+  <si>
+    <t>keploy/keploy</t>
+  </si>
+  <si>
+    <t>ksniff</t>
+  </si>
+  <si>
+    <t>Kubectl plugin to ease sniffing on kubernetes pods using tcpdump and wireshark</t>
+  </si>
+  <si>
+    <t>eldadru/ksniff</t>
+  </si>
+  <si>
+    <t>kruise</t>
+  </si>
+  <si>
+    <t>Kruise consists of several controllers which extend and complement the Kubernetes core controllers for workload management.</t>
+  </si>
+  <si>
+    <t>openkruise/kruise</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>ko is a tool for building and deploying Golang applications to Kubernetes.</t>
+  </si>
+  <si>
+    <t>ko-build/ko</t>
+  </si>
+  <si>
+    <t>kubernetes-ingress-controller</t>
+  </si>
+  <si>
+    <t>Configure plugins, health checking, load balancing and more in Kong for Kubernetes Services</t>
+  </si>
+  <si>
+    <t>Kong/kubernetes-ingress-controller</t>
+  </si>
+  <si>
+    <t>konfig</t>
+  </si>
+  <si>
+    <t>Konfig is a Kubernetes friendly Rails gem. It can load configuration and secrets from both YAML or folders with individual files and present them to your application the same way.</t>
+  </si>
+  <si>
+    <t>cloud66-oss/konfig</t>
+  </si>
+  <si>
+    <t>kOps</t>
+  </si>
+  <si>
+    <t>Kubernetes Operations (kOps) Production Grade k8s Installation, Upgrades and Management</t>
+  </si>
+  <si>
+    <t>kubernetes/kops</t>
+  </si>
+  <si>
+    <t>kubedirector</t>
+  </si>
+  <si>
+    <t>KubeDirector uses standard Kubernetes (K8s) facilities of custom resources and API extensions to implement stateful scaleout application clusters.</t>
+  </si>
+  <si>
+    <t>bluek8s/kubedirector</t>
+  </si>
+  <si>
+    <t>kube-ovn</t>
+  </si>
+  <si>
+    <t>A Kubernetes Network Fabric for Enterprises that is Rich in Functions and Easy in Operations</t>
+  </si>
+  <si>
+    <t>kubeovn/kube-ovn</t>
+  </si>
+  <si>
+    <t>kubenav</t>
+  </si>
+  <si>
+    <t>kubenav is the navigator for your Kubernetes clusters right in your pocket</t>
+  </si>
+  <si>
+    <t>kubenav/kubenav</t>
+  </si>
+  <si>
+    <t>kubefwd</t>
+  </si>
+  <si>
+    <t>Bulk port forwarding Kubernetes services for local development</t>
+  </si>
+  <si>
+    <t>txn2/kubefwd</t>
+  </si>
+  <si>
+    <t>kubectl-warp</t>
+  </si>
+  <si>
+    <t>Kubernetes CLI plugin for syncing and executing local files in Pod on Kubernetes</t>
+  </si>
+  <si>
+    <t>ernoaapa/kubectl-warp</t>
+  </si>
+  <si>
+    <t>kubernix</t>
+  </si>
+  <si>
+    <t>This project aims to provide single dependency Kubernetes clusters for local testing, experimenting and development purposes</t>
+  </si>
+  <si>
+    <t>saschagrunert/kubernix</t>
+  </si>
+  <si>
+    <t>kubesphere</t>
+  </si>
+  <si>
+    <t>The container platform tailored for Kubernetes multi-cloud, datacenter, and edge management</t>
+  </si>
+  <si>
+    <t>kubesphere/kubesphere</t>
+  </si>
+  <si>
+    <t>kubespray</t>
+  </si>
+  <si>
+    <t>Deploy a Production Ready Kubernetes Cluster</t>
+  </si>
+  <si>
+    <t>kubernetes-sigs/kubespray</t>
+  </si>
+  <si>
+    <t>kubicorn</t>
+  </si>
+  <si>
+    <t>Simple, cloud native infrastructure for Kubernetes</t>
+  </si>
+  <si>
+    <t>kubicorn/kubicorn</t>
+  </si>
+  <si>
+    <t>kubeone</t>
+  </si>
+  <si>
+    <t>Kubermatic KubeOne automate cluster operations on all your cloud, on-prem, edge, and IoT environments</t>
+  </si>
+  <si>
+    <t>kubermatic/kubeone</t>
+  </si>
+  <si>
+    <t>kubevious</t>
+  </si>
+  <si>
+    <t>Kubevious renders all configurations relevant to the application in one place. That saves a lot of time from operators, eliminating the need for looking up settings and digging within selectors and labels</t>
+  </si>
+  <si>
+    <t>kubevious/Kubevious</t>
+  </si>
+  <si>
+    <t>k0s</t>
+  </si>
+  <si>
+    <t>k0s - The Zero Friction Kubernetes</t>
+  </si>
+  <si>
+    <t>k0sproject/k0s</t>
+  </si>
+  <si>
+    <t>k3d</t>
+  </si>
+  <si>
+    <t>k3d,and Windows.,destroy,half the memory,highly available,is a tool for running local k3s clusters in docker. It's a single binary about 20 MB. You need to have docker installed</t>
+  </si>
+  <si>
+    <t>k3d-io/k3d</t>
+  </si>
+  <si>
+    <t>k3s</t>
+  </si>
+  <si>
+    <t>Lightweight Kubernetes. Easy to install,Kubernetes clusters from the command line</t>
+  </si>
+  <si>
+    <t>rancher/k3s</t>
+  </si>
+  <si>
+    <t>liqo</t>
+  </si>
+  <si>
+    <t>Liqo implements Dynamic resource sharing across different Kubernetes clusters (e.g.; offloading pods and services), supporting decentralized governance</t>
+  </si>
+  <si>
+    <t>liqotech/liqo</t>
+  </si>
+  <si>
+    <t>liquibase</t>
+  </si>
+  <si>
+    <t>Liquibase helps release software faster by bringing DevOps to the database</t>
+  </si>
+  <si>
+    <t>liquibase/liquibase</t>
+  </si>
+  <si>
+    <t>matchbox</t>
+  </si>
+  <si>
+    <t>Network boot and provision Fedora CoreOS and Flatcar Linux clusters</t>
+  </si>
+  <si>
+    <t>poseidon/matchbox</t>
+  </si>
+  <si>
+    <t>monokle</t>
+  </si>
+  <si>
+    <t>Monokle streamlines the process of creating, analyzing, and deploying Kubernetes configurations by providing a unified visual tool for authoring YAML manifests, validating policies, and managing live clusters</t>
+  </si>
+  <si>
+    <t>kubeshop/monokle</t>
+  </si>
+  <si>
+    <t>metallb</t>
+  </si>
+  <si>
+    <t>A network load-balancer implementation for Kubernetes using standard routing protocols</t>
+  </si>
+  <si>
+    <t>metallb/metallb</t>
+  </si>
+  <si>
+    <t>metalk8s</t>
+  </si>
+  <si>
+    <t>An opinionated Kubernetes distribution with a focus on long-term on-prem deployments</t>
+  </si>
+  <si>
+    <t>scality/metalk8s</t>
+  </si>
+  <si>
+    <t>microk8s</t>
+  </si>
+  <si>
+    <t>MicroK8s is a small, fast, single-package Kubernetes for developers, IoT and edge</t>
+  </si>
+  <si>
+    <t>canonical/microk8s</t>
+  </si>
+  <si>
+    <t>minikube</t>
+  </si>
+  <si>
+    <t>minikube implements a local Kubernetes cluster on macOS,Linux,all in a binary less than 100 MB.</t>
+  </si>
+  <si>
+    <t>kubernetes/minikube</t>
+  </si>
+  <si>
+    <t>nginx</t>
+  </si>
+  <si>
+    <t>NGINX Reverse Proxy</t>
+  </si>
+  <si>
+    <t>nginx/nginx</t>
+  </si>
+  <si>
+    <t>openelb</t>
+  </si>
+  <si>
+    <t>Load Balancer Implementation for Kubernetes in Bare-Metal, Edge, and Virtualization</t>
+  </si>
+  <si>
+    <t>openelb/openelb</t>
+  </si>
+  <si>
+    <t>openresty</t>
+  </si>
+  <si>
+    <t>High Performance Web Platform Based on Nginx and LuaJIT</t>
+  </si>
+  <si>
+    <t>openresty/openresty</t>
+  </si>
+  <si>
+    <t>okteto</t>
+  </si>
+  <si>
+    <t>https://kubedaily.com/blog/okteto/</t>
+  </si>
+  <si>
+    <t>okteto/okteto</t>
+  </si>
+  <si>
+    <t>pipy</t>
+  </si>
+  <si>
+    <t>okteto accelerates the development workflow of Kubernetes applications.</t>
+  </si>
+  <si>
+    <t>Pipy is a programmable proxy for the cloud, edge and IoT. It's written in C++, which makes it extremely lightweight and fast. It's also fully programmable by using PipyJS, a tailored version from the standard JavaScript language.</t>
+  </si>
+  <si>
+    <t>flomesh-io/pip</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>A powerful flow control component enabling reliability, resilience and monitoring for microservices</t>
+  </si>
+  <si>
+    <t>alibaba/Sentinel</t>
+  </si>
+  <si>
+    <t>skipper</t>
+  </si>
+  <si>
+    <t>An HTTP router and reverse proxy for service composition, including use cases like Kubernetes Ingress</t>
+  </si>
+  <si>
+    <t>zalando/skipper</t>
+  </si>
+  <si>
+    <t>silver-surfer</t>
+  </si>
+  <si>
+    <t>sealos is a Kubernetes distribution, a general-purpose cloud operating system for managing cloud-native applications</t>
+  </si>
+  <si>
+    <t>labring/sealos</t>
+  </si>
+  <si>
+    <t>submariner</t>
+  </si>
+  <si>
+    <t>Connect all your Kubernetes clusters, no matter where they are in the world</t>
+  </si>
+  <si>
+    <t>submariner-io/submariner</t>
+  </si>
+  <si>
+    <t>skippbox</t>
+  </si>
+  <si>
+    <t>A Desktop application for k8sd</t>
+  </si>
+  <si>
+    <t>skippbox/skippbox</t>
+  </si>
+  <si>
+    <t>spinnaker</t>
+  </si>
+  <si>
+    <t>Spinnaker is an open source, multi-clouwith high velocity and confidence</t>
+  </si>
+  <si>
+    <t>spinnaker/spinnaker</t>
+  </si>
+  <si>
+    <t>tekton</t>
+  </si>
+  <si>
+    <t>A cloud native continuous integration and delivery (CI/CD) solution</t>
+  </si>
+  <si>
+    <t>tektoncd/pipeline</t>
+  </si>
+  <si>
+    <t>tanka</t>
+  </si>
+  <si>
+    <t>The clean, concise and super flexible alternative to YAML for your Kubernetes cluster</t>
+  </si>
+  <si>
+    <t>grafana/tanka</t>
+  </si>
+  <si>
+    <t>telepresence</t>
+  </si>
+  <si>
+    <t>Telepresence provides fast, realistic local development for Kubernetes microservices</t>
+  </si>
+  <si>
+    <t>telepresenceio/telepresence</t>
+  </si>
+  <si>
+    <t>tilt</t>
+  </si>
+  <si>
+    <t>Tilt powers multi-service development and makes sure they behave</t>
+  </si>
+  <si>
+    <t>tilt-dev/tilt</t>
+  </si>
+  <si>
+    <t>tye</t>
+  </si>
+  <si>
+    <t>Tye is a developer tool that makes developing, testing, and deploying microservices and distributed applications easier</t>
+  </si>
+  <si>
+    <t>dotnet/tye</t>
+  </si>
+  <si>
+    <t>typhoon</t>
+  </si>
+  <si>
+    <t>Minimal and free Kubernetes distribution with Terraform</t>
+  </si>
+  <si>
+    <t>poseidon/typhoon</t>
+  </si>
+  <si>
+    <t>werf</t>
+  </si>
+  <si>
+    <t>https://kubedaily.com/blog/werf/</t>
+  </si>
+  <si>
+    <t>GitOps tool to deliver apps to Kubernetes and integrate this process with GitLab and other CI tools</t>
+  </si>
+  <si>
+    <t>werf/werf</t>
+  </si>
+  <si>
+    <t>Zuul</t>
+  </si>
+  <si>
+    <t>Zuul is a gateway service that provides dynamic routing, monitoring, resiliency, security, and more.</t>
+  </si>
+  <si>
+    <t>Netflix/zuul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +872,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,35 +906,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -137,10 +942,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -178,71 +983,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -270,7 +1075,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -293,11 +1098,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -306,13 +1111,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -322,7 +1127,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -331,7 +1136,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,7 +1145,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -348,10 +1153,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -416,71 +1221,1304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="173.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{7BD7E624-01B2-1E4D-B0BA-5CF2A23EEB09}"/>
+    <hyperlink ref="B75" r:id="rId2" xr:uid="{AC9127B2-88A5-E149-A66B-E6BBAA57F207}"/>
+    <hyperlink ref="B89" r:id="rId3" xr:uid="{E823E660-C7F9-CB42-A3D8-B1CECEA0BD66}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>